--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-9.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2DFB49-101D-4964-A1BF-B46FED069646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14992BB5-8EA7-4A24-A19A-AC3059EBC973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B2B20262-2934-402A-9DBF-27096B541B76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Ayush Shreyas Gayakwad</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>DESIGN &amp; DEVELOPMENT OF ELECTRIC VEHICLE</t>
-  </si>
-  <si>
-    <t>Offer Released</t>
   </si>
   <si>
     <t>Deepak D</t>
@@ -574,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1EE490-3AE6-420A-90A1-BD923100087D}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1237</v>
       </c>
@@ -598,548 +595,464 @@
       <c r="E1" t="b">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1238</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1239</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1240</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1241</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1242</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1243</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1244</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1245</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1246</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1247</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1248</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1249</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1250</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1251</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1252</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1253</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1254</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1255</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1256</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1257</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1258</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1259</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1260</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1261</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1262</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1263</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1264</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
